--- a/CT.xlsx
+++ b/CT.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="21">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
@@ -121,7 +121,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -375,135 +375,152 @@
       </c>
       <c r="F18" s="0"/>
       <c r="G18" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I18" s="0"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F19" s="0"/>
+      <c r="G19" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="H18" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I18" s="0"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="n" s="1">
+      <c r="H19" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I19" s="0"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="1">
         <v>45953.0</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B20" t="s" s="0">
         <v>8</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E20" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F20" s="0"/>
-      <c r="G20" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="H20" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B21" t="n" s="0">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E21" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F21" s="0"/>
+      <c r="G21" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I21" s="0"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B22" t="n" s="0">
         <v>44.0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n" s="1">
+    <row r="23">
+      <c r="A23" t="n" s="1">
         <v>45957.0</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="B23" t="s" s="0">
         <v>20</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D23" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E23" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F23" s="0"/>
-      <c r="G23" t="s" s="0">
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E24" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F24" s="0"/>
+      <c r="G24" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="H23" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I23" s="0"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="n" s="1">
-        <v>45958.0</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>1</v>
-      </c>
+      <c r="H24" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D25" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="E25" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F25" s="0"/>
-      <c r="G25" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B25" t="n" s="0">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="1">
+        <v>45965.0</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E27" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F27" s="0"/>
+      <c r="G27" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="H25" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I25" s="0"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B26" t="n" s="0">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n" s="1">
-        <v>45965.0</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>1</v>
-      </c>
+      <c r="H27" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
@@ -523,7 +540,7 @@
       </c>
       <c r="F28" s="0"/>
       <c r="G28" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s" s="0">
         <v>15</v>
@@ -532,44 +549,44 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E29" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F29" s="0"/>
-      <c r="G29" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="H29" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I29" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="B29" t="n" s="0">
+        <v>46.0</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B30" t="n" s="0">
-        <v>46.0</v>
+      <c r="A30" t="n" s="1">
+        <v>45971.0</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>20</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n" s="1">
-        <v>45971.0</v>
+      <c r="A31" t="s" s="0">
+        <v>12</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>20</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E31" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F31" s="0"/>
+      <c r="G31" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
@@ -589,7 +606,7 @@
       </c>
       <c r="F32" s="0"/>
       <c r="G32" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s" s="0">
         <v>15</v>
@@ -598,164 +615,164 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B33" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D33" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E33" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F33" s="0"/>
-      <c r="G33" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="H33" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I33" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="B33" t="n" s="0">
+        <v>47.0</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B34" t="n" s="0">
-        <v>47.0</v>
+      <c r="A34" t="n" s="1">
+        <v>45978.0</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>20</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n" s="1">
-        <v>45978.0</v>
+      <c r="A35" t="s" s="0">
+        <v>2</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>20</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E35" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="I35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E36" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F36" s="0"/>
+      <c r="G36" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I36" s="0"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="1">
+        <v>45981.0</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B36" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s" s="0">
+      <c r="B38" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D36" t="s" s="0">
+      <c r="D38" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="E36" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F36" s="0"/>
-      <c r="G36" s="0"/>
-      <c r="H36" t="s" s="0">
+      <c r="E38" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="I36" s="0"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B37" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D37" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E37" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F37" s="0"/>
-      <c r="G37" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="H37" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I37" s="0"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="n" s="1">
-        <v>45981.0</v>
-      </c>
-      <c r="B38" t="s" s="0">
-        <v>8</v>
-      </c>
+      <c r="I38" s="0"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s" s="0">
         <v>3</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E39" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F39" s="0"/>
-      <c r="G39" s="0"/>
+      <c r="G39" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="H39" t="s" s="0">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I39" s="0"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B40" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D40" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E40" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F40" s="0"/>
-      <c r="G40" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B40" t="n" s="0">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="1">
+        <v>45988.0</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E42" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F42" s="0"/>
+      <c r="G42" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="H40" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I40" s="0"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B41" t="n" s="0">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n" s="1">
-        <v>45988.0</v>
-      </c>
-      <c r="B42" t="s" s="0">
-        <v>8</v>
-      </c>
+      <c r="H42" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I42" s="0"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
@@ -775,7 +792,7 @@
       </c>
       <c r="F43" s="0"/>
       <c r="G43" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s" s="0">
         <v>15</v>
@@ -784,44 +801,44 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B44" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D44" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E44" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F44" s="0"/>
-      <c r="G44" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="H44" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I44" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="B44" t="n" s="0">
+        <v>51.0</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B45" t="n" s="0">
-        <v>51.0</v>
+      <c r="A45" t="n" s="1">
+        <v>46006.0</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>20</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n" s="1">
-        <v>46006.0</v>
+      <c r="A46" t="s" s="0">
+        <v>12</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>20</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E46" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F46" s="0"/>
+      <c r="G46" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I46" s="0"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
@@ -834,44 +851,19 @@
         <v>13</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E47" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F47" s="0"/>
       <c r="G47" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s" s="0">
         <v>15</v>
       </c>
       <c r="I47" s="0"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B48" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D48" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="E48" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F48" s="0"/>
-      <c r="G48" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="H48" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I48" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/CT.xlsx
+++ b/CT.xlsx
@@ -17,31 +17,31 @@
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
+    <t>lundi</t>
+  </si>
+  <si>
+    <t>Réseaux d'opérateurs (KINX6AB1)</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>TYPE_AUTRE</t>
+  </si>
+  <si>
     <t>jeudi</t>
   </si>
   <si>
-    <t>Réseaux d'opérateurs (KINX6AB1)</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>TYPE_AUTRE</t>
-  </si>
-  <si>
-    <t>dimanche</t>
-  </si>
-  <si>
     <t>TCP/IP (KINX6AB2) /CC</t>
   </si>
   <si>
     <t>TD/CT/EL</t>
   </si>
   <si>
-    <t>samedi</t>
+    <t>mercredi</t>
   </si>
   <si>
     <t>Réseaux d'opérateurs (KINX6AB1) /CC</t>
@@ -110,7 +110,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>45050.0</v>
+        <v>46146.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -139,7 +139,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="1">
-        <v>45053.0</v>
+        <v>46149.0</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>6</v>
@@ -176,7 +176,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n" s="1">
-        <v>45057.0</v>
+        <v>46153.0</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>1</v>
@@ -213,7 +213,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n" s="1">
-        <v>45066.0</v>
+        <v>46162.0</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>9</v>
